--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6135AEF6-C0B2-4F36-844C-6B94C7A0F284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,358 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="115">
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Personne</t>
+  </si>
+  <si>
+    <t>Création de la page index</t>
+  </si>
+  <si>
+    <t>Création des dossiers css et img</t>
+  </si>
+  <si>
+    <t>Création de la page contact et du dossier script</t>
+  </si>
+  <si>
+    <t>Création du style CSS général</t>
+  </si>
+  <si>
+    <t>Création de la page python</t>
+  </si>
+  <si>
+    <t>Création de la page types_langage</t>
+  </si>
+  <si>
+    <t>Création du style CSS python et formulaire</t>
+  </si>
+  <si>
+    <t>Ajout des images JPG guido_van_rossum et PNG logo_python, fond, haut</t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>VS Code</t>
+  </si>
+  <si>
+    <t>Langage</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Création du style footer</t>
+  </si>
+  <si>
+    <t>Ajout des images PNG twitter, pinterest et linkedin</t>
+  </si>
+  <si>
+    <t>Création du script annee</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>Création des pages menu_langages et PHP</t>
+  </si>
+  <si>
+    <t>Création du style menu_langages</t>
+  </si>
+  <si>
+    <t>Ajout des images PNG indentations_python, classes_python, zen_python, accueil, infini, logo_php</t>
+  </si>
+  <si>
+    <t>Modif des pages menu_langages et PHP</t>
+  </si>
+  <si>
+    <t>Modif du style CSS général</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Détails</t>
+  </si>
+  <si>
+    <t>Ajout des images PNG minimal_php et generationhtml_php</t>
+  </si>
+  <si>
+    <t>Ajout des images PNG logo_c, bjsimple_c et bjconventions_c</t>
+  </si>
+  <si>
+    <t>Création de la page C</t>
+  </si>
+  <si>
+    <t>Création des pages Pascal et Java</t>
+  </si>
+  <si>
+    <t>Modif des pages index, contact et Python</t>
+  </si>
+  <si>
+    <t>Création du style haut_page</t>
+  </si>
+  <si>
+    <t>Ajout des images PNG bonjour_pascal</t>
+  </si>
+  <si>
+    <t>Modif des style CSS haut_page et footer</t>
+  </si>
+  <si>
+    <t>Création du script retour_haut</t>
+  </si>
+  <si>
+    <t>Modif des pages types_langage et java</t>
+  </si>
+  <si>
+    <t>Modif de la page Pascal</t>
+  </si>
+  <si>
+    <t>Correction phrases incorrectes</t>
+  </si>
+  <si>
+    <t>Modif des pages C, Java, Pascal, PHP, Python</t>
+  </si>
+  <si>
+    <t>Changement des titres h1</t>
+  </si>
+  <si>
+    <t>Ajout de la classe italique</t>
+  </si>
+  <si>
+    <t>Modif des pages C, Pascal</t>
+  </si>
+  <si>
+    <t>Ajout des mots en italique</t>
+  </si>
+  <si>
+    <t>Modif des pages menu_langages, Pascal</t>
+  </si>
+  <si>
+    <t>Changement du retour en haut de page</t>
+  </si>
+  <si>
+    <t>Ajout du logo et mise en forme auto</t>
+  </si>
+  <si>
+    <t>Modif de toutes les pages</t>
+  </si>
+  <si>
+    <t>Ajout du footer</t>
+  </si>
+  <si>
+    <t>Modif de la page PHP</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>Ajout du lien vers CSS haut_page</t>
+  </si>
+  <si>
+    <t>Modif de la page Java</t>
+  </si>
+  <si>
+    <t>Ajout du logo</t>
+  </si>
+  <si>
+    <t>Modif de la page types_langages</t>
+  </si>
+  <si>
+    <t>Modif de la page types_langages et du style général</t>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+  </si>
+  <si>
+    <t>Ajout de la classe code et implémentation dans types_langages</t>
+  </si>
+  <si>
+    <t>Ajout paragraphe</t>
+  </si>
+  <si>
+    <t>Modif de la page C</t>
+  </si>
+  <si>
+    <t>Mise en conformité W3C</t>
+  </si>
+  <si>
+    <t>Regroupements des feuilles de style en une</t>
+  </si>
+  <si>
+    <t>Brackets</t>
+  </si>
+  <si>
+    <t>Liens CSS obsolètes enlevés</t>
+  </si>
+  <si>
+    <t>Mathieu / Elisa</t>
+  </si>
+  <si>
+    <t>Mathieu / Elisa / Hugo</t>
+  </si>
+  <si>
+    <t>Brackets / Github Web</t>
+  </si>
+  <si>
+    <t>Modif de la page contact</t>
+  </si>
+  <si>
+    <t>Création du dossier archive</t>
+  </si>
+  <si>
+    <t>Github Web</t>
+  </si>
+  <si>
+    <t>Déplacement des styles python, menu_langages, haut_page, formulaire, footer</t>
+  </si>
+  <si>
+    <t>Feuilles de style obsolètes</t>
+  </si>
+  <si>
+    <t>Création de la page Lisp</t>
+  </si>
+  <si>
+    <t>Regroupements des scripts annee et haut_page</t>
+  </si>
+  <si>
+    <t>Modif de la feuille de style générale</t>
+  </si>
+  <si>
+    <t>Déplacement de l'image JPG fond</t>
+  </si>
+  <si>
+    <t>Ajout d'une image JPG fond</t>
+  </si>
+  <si>
+    <t>Changement menu + correction diverses</t>
+  </si>
+  <si>
+    <t>Modification de toutes les pages</t>
+  </si>
+  <si>
+    <t>Changement du menu</t>
+  </si>
+  <si>
+    <t>Github Web / Brackets</t>
+  </si>
+  <si>
+    <t>Mise en archive</t>
+  </si>
+  <si>
+    <t>Déplacement des pages lisp, pascal, PHP, types_langage,</t>
+  </si>
+  <si>
+    <t>Changements des liens footer et menu</t>
+  </si>
+  <si>
+    <t>Création de la page programmation</t>
+  </si>
+  <si>
+    <t>Concaténation des pages Python, C, Java</t>
+  </si>
+  <si>
+    <t>Déplacement des images PNG bonjour_pascal, generationhtml_php, logo_pascal, logo_php, minimal_php et JPG icone ainsi que les scripts annee et retourhaut</t>
+  </si>
+  <si>
+    <t>Modif des pages contact, index</t>
+  </si>
+  <si>
+    <t>Liens CSS obsolètes et icône enlevés, lien menu modifié</t>
+  </si>
+  <si>
+    <t>Création de la page robotique</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Modif de la page programmation</t>
+  </si>
+  <si>
+    <t>Racourcissement car page trop longue</t>
+  </si>
+  <si>
+    <t>Renomination des images JPG afafzefzef, he, robot medical et modification de la page robotique</t>
+  </si>
+  <si>
+    <t>Noms peu parlants, ne respectent pas les conventions -&gt; Changements liens dans la page</t>
+  </si>
+  <si>
+    <t>Modif de la page robotique</t>
+  </si>
+  <si>
+    <t>Déplacement des images PNG accueil, bjsimple_c et JPG classes_python</t>
+  </si>
+  <si>
+    <t>Création de la page IA</t>
+  </si>
+  <si>
+    <t>Modification de la page index</t>
+  </si>
+  <si>
+    <t>Insertion des mentions légales des logos en footer</t>
+  </si>
+  <si>
+    <t>Modification de la page programmation</t>
+  </si>
+  <si>
+    <t>Renomination de la page IA</t>
+  </si>
+  <si>
+    <t>Ajout de l'extension .html</t>
+  </si>
+  <si>
+    <t>Modification de la feuille de style générale</t>
+  </si>
+  <si>
+    <t>Modif des marges de l'id page</t>
+  </si>
+  <si>
+    <t>Modification de la page IA</t>
+  </si>
+  <si>
+    <t>Changement du titre h1</t>
+  </si>
+  <si>
+    <t>Ajout des sources et corrections</t>
+  </si>
+  <si>
+    <t>Changement du style des sources</t>
+  </si>
+  <si>
+    <t>Modification de la page Python</t>
+  </si>
+  <si>
+    <t>Ajout des sources</t>
+  </si>
+  <si>
+    <t>Corrections, ajout sources, paragraphe Java, ajout de liens dans le menu et dans le footer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +405,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +698,1586 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44168</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44168</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44168</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44168</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44169</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44169</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44169</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44169</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44173</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44173</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44177</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44177</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44177</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44178</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44178</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44178</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44178</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44191</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6135AEF6-C0B2-4F36-844C-6B94C7A0F284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F9E11-C508-4AE5-AAB6-F8B491547E84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="125">
   <si>
     <t>Elisa</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Mise en archive</t>
   </si>
   <si>
-    <t>Déplacement des pages lisp, pascal, PHP, types_langage,</t>
-  </si>
-  <si>
     <t>Changements des liens footer et menu</t>
   </si>
   <si>
@@ -370,6 +367,39 @@
   </si>
   <si>
     <t>Corrections, ajout sources, paragraphe Java, ajout de liens dans le menu et dans le footer</t>
+  </si>
+  <si>
+    <t>Déplacement des pages lisp, pascal, PHP, types_langage</t>
+  </si>
+  <si>
+    <t>Ajout d'une image JPG shéma monde IA</t>
+  </si>
+  <si>
+    <t>Changement de la couleur de la classe code</t>
+  </si>
+  <si>
+    <t>Remise en forme du code</t>
+  </si>
+  <si>
+    <t>Renomination de l'image JPG shéma monde IA</t>
+  </si>
+  <si>
+    <t>Non respect des conventions (espaces)</t>
+  </si>
+  <si>
+    <t>Modification du script JS</t>
+  </si>
+  <si>
+    <t>Remise en forme du code et ajout d'instructions pour la fonction info</t>
+  </si>
+  <si>
+    <t>Transformation des styles page a en a</t>
+  </si>
+  <si>
+    <t>Création de la fonction explication</t>
+  </si>
+  <si>
+    <t>Insertion d'appel à la fct explication pr certains mots</t>
   </si>
 </sst>
 </file>
@@ -699,11 +729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1812,7 @@
         <v>44182</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>84</v>
@@ -1805,7 +1835,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>2</v>
@@ -1822,10 +1852,10 @@
         <v>44189</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>2</v>
@@ -1842,7 +1872,7 @@
         <v>44189</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>84</v>
@@ -1862,10 +1892,10 @@
         <v>44189</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>2</v>
@@ -1882,7 +1912,7 @@
         <v>44191</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>17</v>
@@ -1891,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>16</v>
@@ -1902,10 +1932,10 @@
         <v>44195</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>2</v>
@@ -1922,10 +1952,10 @@
         <v>44195</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>2</v>
@@ -1942,7 +1972,7 @@
         <v>44195</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>53</v>
@@ -1962,7 +1992,7 @@
         <v>44195</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>84</v>
@@ -1982,7 +2012,7 @@
         <v>44195</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>17</v>
@@ -1991,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
@@ -2002,10 +2032,10 @@
         <v>44195</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2</v>
@@ -2022,7 +2052,7 @@
         <v>44195</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>53</v>
@@ -2042,10 +2072,10 @@
         <v>44195</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>2</v>
@@ -2062,10 +2092,10 @@
         <v>44195</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>2</v>
@@ -2082,10 +2112,10 @@
         <v>44196</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>2</v>
@@ -2102,7 +2132,7 @@
         <v>44196</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>53</v>
@@ -2122,10 +2152,10 @@
         <v>44197</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>2</v>
@@ -2142,10 +2172,10 @@
         <v>44197</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>2</v>
@@ -2162,10 +2192,10 @@
         <v>44197</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>2</v>
@@ -2182,10 +2212,10 @@
         <v>44197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>2</v>
@@ -2202,10 +2232,10 @@
         <v>44197</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>2</v>
@@ -2222,10 +2252,10 @@
         <v>44197</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>2</v>
@@ -2242,10 +2272,10 @@
         <v>44197</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
@@ -2262,18 +2292,178 @@
         <v>44197</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>43841</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>43841</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>43841</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F9E11-C508-4AE5-AAB6-F8B491547E84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3933B8-F688-42A6-BF35-689C1CB0A61A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86:F86"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,17 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3933B8-F688-42A6-BF35-689C1CB0A61A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB3CB3-C598-4D75-BE1F-DF12E8EEB3F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$86</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -732,8 +744,8 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +759,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2468,6 +2480,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F86" xr:uid="{7DF5F1E6-1B6D-45B9-909D-ACA50CA9F9F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB3CB3-C598-4D75-BE1F-DF12E8EEB3F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392C7877-43B1-47D0-AFD4-0280F8C2DE46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="128">
   <si>
     <t>Elisa</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>Insertion d'appel à la fct explication pr certains mots</t>
+  </si>
+  <si>
+    <t>Modification des pages contact, index, intelligence_artificielle, programmation et robotique</t>
+  </si>
+  <si>
+    <t>Mise en conformité W3C + Changement title head et h1 qui étaient incorrects</t>
+  </si>
+  <si>
+    <t>Modification de la page contact</t>
   </si>
 </sst>
 </file>
@@ -741,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,6 +2488,46 @@
         <v>16</v>
       </c>
     </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F86" xr:uid="{7DF5F1E6-1B6D-45B9-909D-ACA50CA9F9F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392C7877-43B1-47D0-AFD4-0280F8C2DE46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DB692-E1AC-43E8-B95B-1029E97EEEBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="131">
   <si>
     <t>Elisa</t>
   </si>
@@ -421,6 +421,15 @@
   </si>
   <si>
     <t>Modification de la page contact</t>
+  </si>
+  <si>
+    <t>Changement du paragraphe qui parlait des langages de programmation pour une présentation de l'informatique</t>
+  </si>
+  <si>
+    <t>Ajout de l'image jpg turing_machine</t>
+  </si>
+  <si>
+    <t>Ajout des sources des images</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +477,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -750,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,6 +2540,72 @@
         <v>16</v>
       </c>
     </row>
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="5">
+        <f>COUNTIF(D1:D91,"Mathieu")/90*100</f>
+        <v>91.111111111111114</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F86" xr:uid="{7DF5F1E6-1B6D-45B9-909D-ACA50CA9F9F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DB692-E1AC-43E8-B95B-1029E97EEEBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B878013-6851-4336-93AA-CF4A345115E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="132">
   <si>
     <t>Elisa</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>Ajout des sources des images</t>
+  </si>
+  <si>
+    <t>Modification de la page robotique</t>
   </si>
 </sst>
 </file>
@@ -762,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,10 +2603,33 @@
         <v>16</v>
       </c>
     </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D93" s="5">
-        <f>COUNTIF(D1:D91,"Mathieu")/90*100</f>
-        <v>91.111111111111114</v>
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="5">
+        <f>COUNTIF(D1:D92,"Mathieu")/91*100</f>
+        <v>91.208791208791212</v>
       </c>
     </row>
   </sheetData>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B878013-6851-4336-93AA-CF4A345115E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E37C6-F423-4466-A9B9-71DBE88D4B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="133">
   <si>
     <t>Elisa</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Modification de la page robotique</t>
+  </si>
+  <si>
+    <t>Modification des pages contact, intelligence_artificielle et robotique</t>
   </si>
 </sst>
 </file>
@@ -765,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,17 +2626,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="5">
-        <f>COUNTIF(D1:D92,"Mathieu")/91*100</f>
-        <v>91.208791208791212</v>
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="5">
+        <f>COUNTIF(D1:D93,"Mathieu")/92*100</f>
+        <v>91.304347826086953</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F86" xr:uid="{7DF5F1E6-1B6D-45B9-909D-ACA50CA9F9F9}"/>
+  <autoFilter ref="A1:F93" xr:uid="{7DF5F1E6-1B6D-45B9-909D-ACA50CA9F9F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E37C6-F423-4466-A9B9-71DBE88D4B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1D25C-D50D-4CF0-909D-68ACEEECD7DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1D25C-D50D-4CF0-909D-68ACEEECD7DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C68B5E-4F2E-418C-8BC3-EC344557D7C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="140">
   <si>
     <t>Elisa</t>
   </si>
@@ -436,6 +436,27 @@
   </si>
   <si>
     <t>Modification des pages contact, intelligence_artificielle et robotique</t>
+  </si>
+  <si>
+    <t>Modification des pages contact, index, intelligence_artificielle et robotique</t>
+  </si>
+  <si>
+    <t>Changements menus</t>
+  </si>
+  <si>
+    <t>Modification de la page intelligence_artificielle</t>
+  </si>
+  <si>
+    <t>Ajout d'un titre</t>
+  </si>
+  <si>
+    <t>Ajout d'une image WEBP cerveau</t>
+  </si>
+  <si>
+    <t>Insertion de l'image WEBP cerveau</t>
+  </si>
+  <si>
+    <t>Correction des sources</t>
   </si>
 </sst>
 </file>
@@ -768,17 +789,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="43" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2646,11 +2667,131 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D95" s="5">
+      <c r="A95" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="5">
         <f>COUNTIF(D1:D93,"Mathieu")/92*100</f>
         <v>91.304347826086953</v>
       </c>

--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\site_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C68B5E-4F2E-418C-8BC3-EC344557D7C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FFEF87-4F7D-47A9-8CBD-97B498C42033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,8 +792,8 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,10 +2791,7 @@
       <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="5">
-        <f>COUNTIF(D1:D93,"Mathieu")/92*100</f>
-        <v>91.304347826086953</v>
-      </c>
+      <c r="D101" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F93" xr:uid="{7DF5F1E6-1B6D-45B9-909D-ACA50CA9F9F9}"/>
